--- a/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/9/UC3.4.1_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3396793618525686</v>
+        <v>0.3316148457235364</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.33967936185256864, 'ngram_match_score': 0.2018785171297541, 'weighted_ngram_match_score': 0.21130059764541356, 'syntax_match_score': 0.5584415584415584, 'dataflow_match_score': 0.3870967741935484}</t>
+          <t>{'codebleu': 0.3316148457235364, 'ngram_match_score': 0.2018785171297541, 'weighted_ngram_match_score': 0.21130059764541356, 'syntax_match_score': 0.5584415584415584, 'dataflow_match_score': 0.3548387096774194}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
